--- a/strategy_wide/cluster_strategy_wide_2.xlsx
+++ b/strategy_wide/cluster_strategy_wide_2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/m224659_hiroshima-u_ac_jp/Documents/Documents/relation_strategy/strategy_wide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F00B65D7-53F8-4FD7-8DD1-703014D20058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:40009_{F00B65D7-53F8-4FD7-8DD1-703014D20058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9E3DF29-BEB0-4B72-977F-2494BB44D9ED}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1"/>
+    <workbookView minimized="1" xWindow="32880" yWindow="2985" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cluster_strategy_wide_2" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,22 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cluster_strategy_wide_2!$A$1:$U$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$U$35</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -122,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -758,7 +772,679 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1044,294 +1730,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="4" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="4" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="4" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="4" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FFFF0000"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="4" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="-0.25098422193060094"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="4" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1649,7 +2047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3934,88 +4332,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U35">
+  <autoFilter ref="A1:U35" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U35">
       <sortCondition ref="U1:U35"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="D2:H35">
-    <cfRule type="containsText" dxfId="47" priority="37" operator="containsText" text="x_x_R">
+    <cfRule type="containsText" dxfId="79" priority="36" operator="containsText" text="x_x_x">
+      <formula>NOT(ISERROR(SEARCH("x_x_x",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="37" operator="containsText" text="x_x_R">
       <formula>NOT(ISERROR(SEARCH("x_x_R",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="40" operator="containsText" text="x_S_R">
+    <cfRule type="containsText" dxfId="77" priority="38" operator="containsText" text="x_S_x">
+      <formula>NOT(ISERROR(SEARCH("x_S_x",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="40" operator="containsText" text="x_S_R">
       <formula>NOT(ISERROR(SEARCH("x_S_R",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="43" operator="containsText" text="F_S_x">
+    <cfRule type="containsText" dxfId="75" priority="41" operator="containsText" text="F_x_x">
+      <formula>NOT(ISERROR(SEARCH("F_x_x",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="42" operator="containsText" text="F_x_R">
+      <formula>NOT(ISERROR(SEARCH("F_x_R",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="43" operator="containsText" text="F_S_x">
       <formula>NOT(ISERROR(SEARCH("F_S_x",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="x_x_x">
-      <formula>NOT(ISERROR(SEARCH("x_x_x",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="F_x_R">
-      <formula>NOT(ISERROR(SEARCH("F_x_R",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="F_x_x">
-      <formula>NOT(ISERROR(SEARCH("F_x_x",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="F_S_R">
+    <cfRule type="containsText" dxfId="72" priority="44" operator="containsText" text="F_S_R">
       <formula>NOT(ISERROR(SEARCH("F_S_R",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="x_S_x">
-      <formula>NOT(ISERROR(SEARCH("x_S_x",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:N35">
-    <cfRule type="containsText" dxfId="39" priority="12" operator="containsText" text="x_x_x">
-      <formula>NOT(ISERROR(SEARCH("x_x_x",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="x_x_R">
-      <formula>NOT(ISERROR(SEARCH("x_x_R",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="14" operator="containsText" text="x_S_x">
-      <formula>NOT(ISERROR(SEARCH("x_S_x",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="x_S_R">
-      <formula>NOT(ISERROR(SEARCH("x_S_R",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="16" operator="containsText" text="F_x_x">
-      <formula>NOT(ISERROR(SEARCH("F_x_x",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="F_x_R">
-      <formula>NOT(ISERROR(SEARCH("F_x_R",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="18" operator="containsText" text="F_S_x">
-      <formula>NOT(ISERROR(SEARCH("F_S_x",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="F_S_R">
-      <formula>NOT(ISERROR(SEARCH("F_S_R",J2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:T35">
-    <cfRule type="containsText" dxfId="31" priority="4" operator="containsText" text="x_x_x">
-      <formula>NOT(ISERROR(SEARCH("x_x_x",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="x_x_R">
-      <formula>NOT(ISERROR(SEARCH("x_x_R",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="6" operator="containsText" text="x_S_x">
-      <formula>NOT(ISERROR(SEARCH("x_S_x",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="x_S_R">
-      <formula>NOT(ISERROR(SEARCH("x_S_R",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="F_x_x">
-      <formula>NOT(ISERROR(SEARCH("F_x_x",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="F_x_R">
-      <formula>NOT(ISERROR(SEARCH("F_x_R",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="F_S_x">
-      <formula>NOT(ISERROR(SEARCH("F_S_x",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="F_S_R">
-      <formula>NOT(ISERROR(SEARCH("F_S_R",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
@@ -4032,6 +4378,32 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J2:N35">
+    <cfRule type="containsText" dxfId="71" priority="12" operator="containsText" text="x_x_x">
+      <formula>NOT(ISERROR(SEARCH("x_x_x",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="x_x_R">
+      <formula>NOT(ISERROR(SEARCH("x_x_R",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="14" operator="containsText" text="x_S_x">
+      <formula>NOT(ISERROR(SEARCH("x_S_x",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="15" operator="containsText" text="x_S_R">
+      <formula>NOT(ISERROR(SEARCH("x_S_R",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="16" operator="containsText" text="F_x_x">
+      <formula>NOT(ISERROR(SEARCH("F_x_x",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="17" operator="containsText" text="F_x_R">
+      <formula>NOT(ISERROR(SEARCH("F_x_R",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="18" operator="containsText" text="F_S_x">
+      <formula>NOT(ISERROR(SEARCH("F_S_x",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="19" operator="containsText" text="F_S_R">
+      <formula>NOT(ISERROR(SEARCH("F_S_R",J2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
     <cfRule type="dataBar" priority="2">
       <dataBar>
@@ -4044,6 +4416,32 @@
           <x14:id>{AD6B47B4-1983-4F8C-B738-0E8D029B803E}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:T35">
+    <cfRule type="containsText" dxfId="63" priority="4" operator="containsText" text="x_x_x">
+      <formula>NOT(ISERROR(SEARCH("x_x_x",P2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="5" operator="containsText" text="x_x_R">
+      <formula>NOT(ISERROR(SEARCH("x_x_R",P2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="6" operator="containsText" text="x_S_x">
+      <formula>NOT(ISERROR(SEARCH("x_S_x",P2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="7" operator="containsText" text="x_S_R">
+      <formula>NOT(ISERROR(SEARCH("x_S_R",P2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="8" operator="containsText" text="F_x_x">
+      <formula>NOT(ISERROR(SEARCH("F_x_x",P2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="F_x_R">
+      <formula>NOT(ISERROR(SEARCH("F_x_R",P2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="10" operator="containsText" text="F_S_x">
+      <formula>NOT(ISERROR(SEARCH("F_S_x",P2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="11" operator="containsText" text="F_S_R">
+      <formula>NOT(ISERROR(SEARCH("F_S_R",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U1048576">
@@ -4110,11 +4508,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:U35"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4313,10 +4711,10 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>31610012</v>
+        <v>31410196</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -4334,128 +4732,128 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>31610158</v>
+        <v>31410066</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="s">
         <v>22</v>
       </c>
       <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" t="s">
         <v>27</v>
       </c>
-      <c r="R5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" t="s">
-        <v>26</v>
-      </c>
       <c r="T5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>31610028</v>
+        <v>31510074</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -4467,7 +4865,7 @@
         <v>21</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>21</v>
@@ -4488,42 +4886,42 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="T6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>31610037</v>
+        <v>31510058</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
@@ -4532,7 +4930,7 @@
         <v>20</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J7" t="s">
         <v>20</v>
@@ -4544,7 +4942,7 @@
         <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7" t="s">
         <v>20</v>
@@ -4553,7 +4951,7 @@
         <v>2</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q7" t="s">
         <v>23</v>
@@ -4562,21 +4960,21 @@
         <v>23</v>
       </c>
       <c r="S7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T7" t="s">
         <v>23</v>
       </c>
       <c r="U7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>31610016</v>
+        <v>31510147</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -4585,7 +4983,7 @@
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
@@ -4594,19 +4992,19 @@
         <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
         <v>21</v>
@@ -4618,30 +5016,30 @@
         <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>31410196</v>
+        <v>31610016</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -4653,13 +5051,13 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4671,7 +5069,7 @@
         <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
         <v>21</v>
@@ -4683,87 +5081,87 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" t="s">
-        <v>23</v>
-      </c>
       <c r="T9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>31410011</v>
+        <v>31610097</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R10" t="s">
         <v>27</v>
       </c>
       <c r="S10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T10" t="s">
         <v>27</v>
       </c>
       <c r="U10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.4">
@@ -4833,10 +5231,10 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>31410066</v>
+        <v>31610075</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -4845,75 +5243,75 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" t="s">
         <v>22</v>
       </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12">
-        <v>2</v>
-      </c>
-      <c r="P12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>25</v>
-      </c>
-      <c r="R12" t="s">
-        <v>25</v>
-      </c>
       <c r="S12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>31410170</v>
+        <v>31610135</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
@@ -4922,51 +5320,51 @@
         <v>21</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
         <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="s">
         <v>23</v>
       </c>
       <c r="Q13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R13" t="s">
         <v>23</v>
       </c>
       <c r="S13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T13" t="s">
         <v>23</v>
       </c>
       <c r="U13">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>31510087</v>
+        <v>31710106</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -4978,37 +5376,37 @@
         <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s">
         <v>21</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N14" t="s">
         <v>21</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q14" t="s">
         <v>23</v>
@@ -5017,21 +5415,21 @@
         <v>23</v>
       </c>
       <c r="S14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U14">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>31510074</v>
+        <v>31610012</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -5043,69 +5441,69 @@
         <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>72</v>
+        <v>31610028</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
@@ -5117,31 +5515,31 @@
         <v>21</v>
       </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16">
         <v>1</v>
       </c>
-      <c r="J16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
         <v>27</v>
       </c>
-      <c r="O16">
-        <v>7</v>
-      </c>
-      <c r="P16" t="s">
-        <v>26</v>
-      </c>
       <c r="Q16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R16" t="s">
         <v>27</v>
@@ -5158,16 +5556,16 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>31710150</v>
+        <v>31410011</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -5179,54 +5577,54 @@
         <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" t="s">
-        <v>21</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
       <c r="P17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="R17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="S17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="T17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U17">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>31710148</v>
+        <v>72</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -5238,125 +5636,125 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
         <v>21</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M18" t="s">
         <v>21</v>
       </c>
       <c r="N18" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="S18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="T18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>31510058</v>
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L19" t="s">
         <v>21</v>
       </c>
       <c r="M19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="R19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="S19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B20">
-        <v>31710046</v>
+        <v>31610121</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -5365,72 +5763,72 @@
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P20" t="s">
         <v>26</v>
       </c>
       <c r="Q20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="R20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>31610075</v>
+        <v>31610158</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -5463,30 +5861,30 @@
         <v>1</v>
       </c>
       <c r="P21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Q21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="S21" t="s">
         <v>26</v>
       </c>
       <c r="T21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>31610135</v>
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -5501,66 +5899,66 @@
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22">
+        <v>6</v>
+      </c>
+      <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22">
         <v>1</v>
       </c>
-      <c r="J22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" t="s">
-        <v>20</v>
-      </c>
-      <c r="O22">
-        <v>2</v>
-      </c>
       <c r="P22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="R22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S22" t="s">
         <v>26</v>
       </c>
       <c r="T22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>31610001</v>
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
         <v>20</v>
@@ -5569,60 +5967,60 @@
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L23" t="s">
         <v>21</v>
       </c>
       <c r="M23" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q23" t="s">
         <v>23</v>
       </c>
       <c r="R23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S23" t="s">
         <v>23</v>
       </c>
       <c r="T23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="U23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>31510156</v>
+        <v>31610037</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -5637,13 +6035,13 @@
         <v>20</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L24" t="s">
         <v>21</v>
@@ -5652,10 +6050,10 @@
         <v>21</v>
       </c>
       <c r="N24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" t="s">
         <v>24</v>
@@ -5678,16 +6076,16 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>31610025</v>
+        <v>31410170</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
         <v>21</v>
@@ -5723,7 +6121,7 @@
         <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q25" t="s">
         <v>23</v>
@@ -5743,23 +6141,23 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>31510087</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>21</v>
-      </c>
       <c r="G26" t="s">
         <v>21</v>
       </c>
@@ -5767,7 +6165,7 @@
         <v>21</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J26" t="s">
         <v>21</v>
@@ -5788,30 +6186,30 @@
         <v>1</v>
       </c>
       <c r="P26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="T26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U26">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>31710106</v>
+        <v>31710150</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -5820,40 +6218,40 @@
         <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L27" t="s">
         <v>21</v>
       </c>
       <c r="M27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N27" t="s">
         <v>21</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q27" t="s">
         <v>23</v>
@@ -5862,21 +6260,21 @@
         <v>23</v>
       </c>
       <c r="S27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>31710148</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -5891,22 +6289,22 @@
         <v>20</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H28" t="s">
         <v>20</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M28" t="s">
         <v>21</v>
@@ -5915,33 +6313,33 @@
         <v>21</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U28">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>31610097</v>
+        <v>31710046</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -5965,48 +6363,48 @@
         <v>6</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L29" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M29" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N29" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P29" t="s">
         <v>26</v>
       </c>
       <c r="Q29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U29">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B30">
-        <v>314110123</v>
+        <v>31610001</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -6015,7 +6413,7 @@
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
@@ -6027,16 +6425,16 @@
         <v>20</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M30" t="s">
         <v>20</v>
@@ -6045,7 +6443,7 @@
         <v>21</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P30" t="s">
         <v>23</v>
@@ -6068,10 +6466,10 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B31">
-        <v>31510147</v>
+        <v>31510156</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -6080,19 +6478,19 @@
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J31" t="s">
         <v>21</v>
@@ -6113,10 +6511,10 @@
         <v>1</v>
       </c>
       <c r="P31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R31" t="s">
         <v>23</v>
@@ -6128,80 +6526,80 @@
         <v>23</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="B32">
+        <v>31610025</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L32" t="s">
         <v>21</v>
       </c>
       <c r="M32" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P32" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Q32" t="s">
         <v>23</v>
       </c>
       <c r="R32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S32" t="s">
         <v>23</v>
       </c>
       <c r="T32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U32">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>31710156</v>
+        <v>314110123</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -6225,28 +6623,28 @@
         <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s">
         <v>20</v>
       </c>
       <c r="L33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M33" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R33" t="s">
         <v>23</v>
@@ -6263,10 +6661,10 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>31610121</v>
+        <v>31710156</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -6275,55 +6673,55 @@
         <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34">
         <v>0</v>
       </c>
-      <c r="J34" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" t="s">
-        <v>21</v>
-      </c>
-      <c r="O34">
-        <v>1</v>
-      </c>
       <c r="P34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="T34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U34">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
@@ -6392,172 +6790,74 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U35" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U35">
+      <sortCondition ref="U1:U35"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="D2:H35">
-    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="x_x_x">
-      <formula>NOT(ISERROR(SEARCH("x_x_x",D2)))</formula>
+  <conditionalFormatting sqref="A1:H1048576 J1:N1048576 P1:T1048576 V1:XFD1048576">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="x_x_x">
+      <formula>NOT(ISERROR(SEARCH("x_x_x",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="x_x_R">
-      <formula>NOT(ISERROR(SEARCH("x_x_R",D2)))</formula>
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="x_x_R">
+      <formula>NOT(ISERROR(SEARCH("x_x_R",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="x_S_x">
-      <formula>NOT(ISERROR(SEARCH("x_S_x",D2)))</formula>
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="x_S_x">
+      <formula>NOT(ISERROR(SEARCH("x_S_x",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="x_S_R">
-      <formula>NOT(ISERROR(SEARCH("x_S_R",D2)))</formula>
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="x_S_R">
+      <formula>NOT(ISERROR(SEARCH("x_S_R",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="24" operator="containsText" text="F_x_x">
-      <formula>NOT(ISERROR(SEARCH("F_x_x",D2)))</formula>
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="F_x_x">
+      <formula>NOT(ISERROR(SEARCH("F_x_x",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="F_x_R">
-      <formula>NOT(ISERROR(SEARCH("F_x_R",D2)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="F_x_R">
+      <formula>NOT(ISERROR(SEARCH("F_x_R",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="26" operator="containsText" text="F_S_x">
-      <formula>NOT(ISERROR(SEARCH("F_S_x",D2)))</formula>
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="F_S_x">
+      <formula>NOT(ISERROR(SEARCH("F_S_x",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="F_S_R">
-      <formula>NOT(ISERROR(SEARCH("F_S_R",D2)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="22" operator="containsText" text="F_S_R">
+      <formula>NOT(ISERROR(SEARCH("F_S_R",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I35">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFFF555A"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0042C533-2A44-4CE8-BABA-5B7A1B420335}</x14:id>
-        </ext>
-      </extLst>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:N35">
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="x_x_x">
-      <formula>NOT(ISERROR(SEARCH("x_x_x",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="x_x_R">
-      <formula>NOT(ISERROR(SEARCH("x_x_R",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="x_S_x">
-      <formula>NOT(ISERROR(SEARCH("x_S_x",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="x_S_R">
-      <formula>NOT(ISERROR(SEARCH("x_S_R",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="F_x_x">
-      <formula>NOT(ISERROR(SEARCH("F_x_x",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="F_x_R">
-      <formula>NOT(ISERROR(SEARCH("F_x_R",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="F_S_x">
-      <formula>NOT(ISERROR(SEARCH("F_S_x",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="F_S_R">
-      <formula>NOT(ISERROR(SEARCH("F_S_R",J2)))</formula>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O35">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
+  <conditionalFormatting sqref="U1:U1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{78CC8F48-44BB-406E-A2D0-E64519FDD889}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2:T35">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="x_x_x">
-      <formula>NOT(ISERROR(SEARCH("x_x_x",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="x_x_R">
-      <formula>NOT(ISERROR(SEARCH("x_x_R",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="x_S_x">
-      <formula>NOT(ISERROR(SEARCH("x_S_x",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="x_S_R">
-      <formula>NOT(ISERROR(SEARCH("x_S_R",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="F_x_x">
-      <formula>NOT(ISERROR(SEARCH("F_x_x",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="F_x_R">
-      <formula>NOT(ISERROR(SEARCH("F_x_R",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="F_S_x">
-      <formula>NOT(ISERROR(SEARCH("F_S_x",P2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="F_S_R">
-      <formula>NOT(ISERROR(SEARCH("F_S_R",P2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U35">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D1C2C9FE-3419-4BBE-8036-7F29C2A18802}</x14:id>
-        </ext>
-      </extLst>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0042C533-2A44-4CE8-BABA-5B7A1B420335}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFFF555A"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I1:I35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{78CC8F48-44BB-406E-A2D0-E64519FDD889}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFD6007B"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>O2:O35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D1C2C9FE-3419-4BBE-8036-7F29C2A18802}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFD6007B"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>U2:U35</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>